--- a/file/top20.xlsx
+++ b/file/top20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Brand</t>
   </si>
@@ -31,21 +31,12 @@
     <t xml:space="preserve">Heinz                                                       </t>
   </si>
   <si>
-    <t>12-54-0638</t>
-  </si>
-  <si>
     <t>Babul Distribution</t>
   </si>
   <si>
     <t xml:space="preserve">Emami                                                       </t>
   </si>
   <si>
-    <t>16-77-0009</t>
-  </si>
-  <si>
-    <t>M/S Rashid Enterprise</t>
-  </si>
-  <si>
     <t>13-54-0002</t>
   </si>
   <si>
@@ -61,81 +52,12 @@
     <t>M/S Nujhat Enterprise</t>
   </si>
   <si>
-    <t xml:space="preserve">Cetaphil                                                    </t>
-  </si>
-  <si>
-    <t>12-41-0077</t>
-  </si>
-  <si>
-    <t>Mr. Faisal Hussain</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bajaj                                                       </t>
   </si>
   <si>
-    <t>21-73-0326</t>
-  </si>
-  <si>
-    <t>Raju Cosmetics Bazar</t>
-  </si>
-  <si>
-    <t>12-73-0918</t>
-  </si>
-  <si>
-    <t>M/S J.B.M Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energizer                                                   </t>
-  </si>
-  <si>
-    <t>12-59-1030</t>
-  </si>
-  <si>
-    <t>M/S Faruk Store</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abbott                                                      </t>
   </si>
   <si>
-    <t>12-72-0847</t>
-  </si>
-  <si>
-    <t>M/S Sharabela Store</t>
-  </si>
-  <si>
-    <t>12-77-0918</t>
-  </si>
-  <si>
-    <t>12-59-1020</t>
-  </si>
-  <si>
-    <t>Trust Trading</t>
-  </si>
-  <si>
-    <t>12-73-1023</t>
-  </si>
-  <si>
-    <t>M/S Swarna Enterprise</t>
-  </si>
-  <si>
-    <t>12-54-0867</t>
-  </si>
-  <si>
-    <t>M/S Sorowar Hossain</t>
-  </si>
-  <si>
-    <t>12-73-0874</t>
-  </si>
-  <si>
-    <t>Rafiq Store</t>
-  </si>
-  <si>
-    <t>12-54-0883</t>
-  </si>
-  <si>
-    <t>Haque &amp; Brothers</t>
-  </si>
-  <si>
     <t>12-73-0845</t>
   </si>
   <si>
@@ -145,28 +67,100 @@
     <t xml:space="preserve">Garnier                                                     </t>
   </si>
   <si>
-    <t>12-52-0054</t>
-  </si>
-  <si>
-    <t>Mr. Ruhul Amin Hawlader</t>
-  </si>
-  <si>
     <t>12-42-0872</t>
   </si>
   <si>
     <t>Hafij Store (New)</t>
   </si>
   <si>
-    <t>12-77-1006</t>
-  </si>
-  <si>
-    <t>M/S Sikder Enterprise</t>
-  </si>
-  <si>
-    <t>Mr.Nazmul Haque-BLL</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>12-73-1025</t>
+  </si>
+  <si>
+    <t>Momo &amp; Sons</t>
+  </si>
+  <si>
+    <t>12-73-0993</t>
+  </si>
+  <si>
+    <t>Sha Enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARS                                                        </t>
+  </si>
+  <si>
+    <t>12-60-0869</t>
+  </si>
+  <si>
+    <t>Allahor Doya Vander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vini                                                        </t>
+  </si>
+  <si>
+    <t>12-40-0860</t>
+  </si>
+  <si>
+    <t>Newas Enterprise</t>
+  </si>
+  <si>
+    <t>13-77-0001</t>
+  </si>
+  <si>
+    <t>12-42-1000</t>
+  </si>
+  <si>
+    <t>Falguni Store</t>
+  </si>
+  <si>
+    <t>12-52-1159</t>
+  </si>
+  <si>
+    <t>M/S Tanjil Traders</t>
+  </si>
+  <si>
+    <t>12-60-0924</t>
+  </si>
+  <si>
+    <t>M/S Bhuiya Traders</t>
+  </si>
+  <si>
+    <t>21-72-0083</t>
+  </si>
+  <si>
+    <t>S. H. Enterprise</t>
+  </si>
+  <si>
+    <t>13-77-0003</t>
+  </si>
+  <si>
+    <t>M/S Bhuiyan Enterprize</t>
+  </si>
+  <si>
+    <t>12-60-0054</t>
+  </si>
+  <si>
+    <t>Mr.Aminul Islam-SS</t>
+  </si>
+  <si>
+    <t>12-72-0860</t>
+  </si>
+  <si>
+    <t>12-72-0638</t>
+  </si>
+  <si>
+    <t>12-77-0860</t>
+  </si>
+  <si>
+    <t>12-42-1159</t>
+  </si>
+  <si>
+    <t>12-77-1052</t>
+  </si>
+  <si>
+    <t>Mr.Subrata Bairagi</t>
+  </si>
+  <si>
+    <t>SL</t>
   </si>
 </sst>
 </file>
@@ -212,9 +206,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,17 +518,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>50</v>
+      <c r="A1" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -548,343 +548,343 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>54402.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8982.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>53068.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2">
+        <v>24582.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>220465.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13944.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>17910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5667.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>12250.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8339.0400000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2">
+        <v>61441.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2500.3000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6972.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7382.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1820.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>31215.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E16" s="2">
+        <v>61225.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>96242.76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>54872.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>985.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E18" s="2">
+        <v>93831.52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5167.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>22799.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2">
+        <v>57688.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>15462.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>35798.400000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>50682.720000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>2987.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>44108.88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13">
-        <v>26428.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14">
-        <v>9517.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>139839.79999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16">
-        <v>16208.28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17">
-        <v>19234.259999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <v>283.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E19">
-        <v>90106.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20">
-        <v>32554.799999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21">
-        <v>283.19</v>
+      <c r="E21" s="2">
+        <v>272.72000000000003</v>
       </c>
     </row>
   </sheetData>
